--- a/database_messe_orizzontale.xlsx
+++ b/database_messe_orizzontale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -58,7 +58,19 @@
     <t>gennaio</t>
   </si>
   <si>
+    <t>febbraio</t>
+  </si>
+  <si>
     <t>fra Giacomo Rotunno</t>
+  </si>
+  <si>
+    <t>Fra Alberto Dos Santos</t>
+  </si>
+  <si>
+    <t>Ospite</t>
+  </si>
+  <si>
+    <t>fra Gabriele Giobbi</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +477,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2024</v>
@@ -474,19 +486,19 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>31</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -506,28 +518,28 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2024</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -547,7 +559,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2024</v>
@@ -556,28 +568,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -588,7 +600,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2024</v>
@@ -597,19 +609,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -624,6 +636,129 @@
         <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
